--- a/Documents/Bảng_thống_kê_nhân_lực.xlsx
+++ b/Documents/Bảng_thống_kê_nhân_lực.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\HQN-Team\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\COSMOS\STUDY\Sophomore\HKII\PBL3\HQN-Team\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A34C025-9ADC-4ACF-841B-9D8CC5152C02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,8 +87,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +117,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -181,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +214,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -489,21 +497,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AO23" sqref="AO23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="40" width="3.5703125" style="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="40" width="3.5546875" style="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,38 +607,38 @@
       </c>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3</v>
-      </c>
-      <c r="G2" s="5">
-        <v>3</v>
-      </c>
-      <c r="H2" s="5">
-        <v>3</v>
-      </c>
-      <c r="I2" s="5">
-        <v>3</v>
-      </c>
-      <c r="J2" s="5">
-        <v>3</v>
-      </c>
-      <c r="K2" s="5">
+      <c r="B2" s="11">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3</v>
+      </c>
+      <c r="F2" s="11">
+        <v>3</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11">
+        <v>3</v>
+      </c>
+      <c r="J2" s="11">
+        <v>3</v>
+      </c>
+      <c r="K2" s="11">
         <v>3</v>
       </c>
       <c r="L2" s="5"/>
@@ -655,7 +663,7 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="7"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -669,46 +677,46 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="L3" s="5">
-        <v>1</v>
-      </c>
-      <c r="M3" s="5">
-        <v>1</v>
-      </c>
-      <c r="N3" s="5">
-        <v>1</v>
-      </c>
-      <c r="O3" s="5">
-        <v>1</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1</v>
-      </c>
-      <c r="R3" s="5">
-        <v>1</v>
-      </c>
-      <c r="S3" s="5">
-        <v>1</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1</v>
-      </c>
-      <c r="U3" s="5">
-        <v>1</v>
-      </c>
-      <c r="V3" s="5">
-        <v>1</v>
-      </c>
-      <c r="W3" s="5">
-        <v>1</v>
-      </c>
-      <c r="X3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="5">
+      <c r="L3" s="11">
+        <v>1</v>
+      </c>
+      <c r="M3" s="11">
+        <v>1</v>
+      </c>
+      <c r="N3" s="11">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11">
+        <v>1</v>
+      </c>
+      <c r="P3" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1</v>
+      </c>
+      <c r="R3" s="11">
+        <v>1</v>
+      </c>
+      <c r="S3" s="11">
+        <v>1</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1</v>
+      </c>
+      <c r="U3" s="11">
+        <v>1</v>
+      </c>
+      <c r="V3" s="11">
+        <v>1</v>
+      </c>
+      <c r="W3" s="11">
+        <v>1</v>
+      </c>
+      <c r="X3" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="11">
         <v>1</v>
       </c>
       <c r="Z3" s="5"/>
@@ -719,7 +727,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="7"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,7 +755,7 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
-      <c r="Z4" s="5">
+      <c r="Z4" s="11">
         <v>2</v>
       </c>
       <c r="AA4" s="5"/>
@@ -757,7 +765,7 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="7"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -786,24 +794,24 @@
       <c r="X5" s="5"/>
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
-      <c r="AA5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="5">
+      <c r="AA5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="11">
         <v>1</v>
       </c>
       <c r="AF5" s="7"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -839,7 +847,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="7"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -881,7 +889,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="7"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -919,7 +927,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="7"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -955,7 +963,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="7"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -991,7 +999,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="7"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1027,7 +1035,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="7"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1063,7 +1071,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="7"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1099,7 +1107,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="7"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1143,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="7"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1171,7 +1179,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="7"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1207,7 +1215,7 @@
       <c r="AE16" s="5"/>
       <c r="AF16" s="7"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1243,7 +1251,7 @@
       <c r="AE17" s="5"/>
       <c r="AF17" s="7"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1286,7 @@
       <c r="AE18" s="5"/>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1373,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1407,7 +1415,7 @@
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
     </row>
-    <row r="21" spans="1:32" ht="33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="33.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1487,7 @@
       <c r="AE21" s="6"/>
       <c r="AF21" s="7"/>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>1</v>
       </c>
@@ -1515,7 +1523,7 @@
       <c r="AE22" s="7"/>
       <c r="AF22" s="7"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1559,7 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1587,11 +1595,11 @@
       <c r="AE24" s="7"/>
       <c r="AF24" s="7"/>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="11">
         <v>1</v>
       </c>
       <c r="C25" s="5"/>
@@ -1625,12 +1633,12 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="C26" s="5">
+      <c r="C26" s="11">
         <v>2</v>
       </c>
       <c r="D26" s="5"/>
@@ -1663,7 +1671,7 @@
       <c r="AE26" s="7"/>
       <c r="AF26" s="7"/>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1699,7 +1707,7 @@
       <c r="AE27" s="7"/>
       <c r="AF27" s="7"/>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1735,7 +1743,7 @@
       <c r="AE28" s="7"/>
       <c r="AF28" s="7"/>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1775,16 +1783,16 @@
       <c r="AE29" s="7"/>
       <c r="AF29" s="7"/>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="11">
+        <v>1</v>
+      </c>
+      <c r="E30" s="11">
         <v>1</v>
       </c>
       <c r="F30" s="5"/>
@@ -1815,7 +1823,7 @@
       <c r="AE30" s="7"/>
       <c r="AF30" s="7"/>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1855,7 +1863,7 @@
       <c r="AE31" s="7"/>
       <c r="AF31" s="7"/>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
@@ -1895,7 +1903,7 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -1903,10 +1911,10 @@
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="5">
-        <v>1</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11">
         <v>1</v>
       </c>
       <c r="H33" s="5"/>
@@ -1935,7 +1943,7 @@
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
@@ -1975,7 +1983,7 @@
       <c r="AE34" s="7"/>
       <c r="AF34" s="7"/>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1985,10 +1993,10 @@
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5">
-        <v>1</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35" s="11">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
         <v>1</v>
       </c>
       <c r="J35" s="5"/>
@@ -2015,7 +2023,7 @@
       <c r="AE35" s="7"/>
       <c r="AF35" s="7"/>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
@@ -2027,16 +2035,16 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
-      <c r="J36" s="5">
-        <v>3</v>
-      </c>
-      <c r="K36" s="5">
-        <v>3</v>
-      </c>
-      <c r="L36" s="5">
-        <v>3</v>
-      </c>
-      <c r="M36" s="5">
+      <c r="J36" s="11">
+        <v>3</v>
+      </c>
+      <c r="K36" s="11">
+        <v>3</v>
+      </c>
+      <c r="L36" s="11">
+        <v>3</v>
+      </c>
+      <c r="M36" s="11">
         <v>3</v>
       </c>
       <c r="N36" s="5"/>
@@ -2059,7 +2067,7 @@
       <c r="AE36" s="7"/>
       <c r="AF36" s="7"/>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
@@ -2075,13 +2083,13 @@
       <c r="K37" s="10"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="5">
-        <v>3</v>
-      </c>
-      <c r="O37" s="5">
-        <v>3</v>
-      </c>
-      <c r="P37" s="5">
+      <c r="N37" s="11">
+        <v>3</v>
+      </c>
+      <c r="O37" s="11">
+        <v>3</v>
+      </c>
+      <c r="P37" s="11">
         <v>3</v>
       </c>
       <c r="Q37" s="5"/>
@@ -2101,7 +2109,7 @@
       <c r="AE37" s="7"/>
       <c r="AF37" s="8"/>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
@@ -2119,13 +2127,13 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="5">
-        <v>3</v>
-      </c>
-      <c r="R38" s="5">
-        <v>3</v>
-      </c>
-      <c r="S38" s="5">
+      <c r="Q38" s="11">
+        <v>3</v>
+      </c>
+      <c r="R38" s="11">
+        <v>3</v>
+      </c>
+      <c r="S38" s="11">
         <v>3</v>
       </c>
       <c r="T38" s="7"/>
@@ -2141,7 +2149,7 @@
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>17</v>
       </c>

--- a/Documents/Bảng_thống_kê_nhân_lực.xlsx
+++ b/Documents/Bảng_thống_kê_nhân_lực.xlsx
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -678,46 +678,46 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
@@ -756,7 +756,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="5"/>
       <c r="Z4" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4" s="5"/>
@@ -795,19 +795,19 @@
       <c r="Y5" s="5"/>
       <c r="Z5" s="5"/>
       <c r="AA5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="7"/>
     </row>
@@ -1321,64 +1321,64 @@
         <v>3</v>
       </c>
       <c r="L19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y19" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.3">
@@ -1600,7 +1600,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1994,10 +1994,10 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -2154,10 +2154,10 @@
         <v>17</v>
       </c>
       <c r="B39" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" s="4">
         <v>3</v>
@@ -2172,10 +2172,10 @@
         <v>3</v>
       </c>
       <c r="H39" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I39" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" s="4">
         <v>3</v>
